--- a/testSet/caselist/test.xlsx
+++ b/testSet/caselist/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>test_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PP ISSUEATCNA</t>
-  </si>
-  <si>
-    <t>PP ISSUEATAUA</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATCNE</t>
+  </si>
+  <si>
+    <t>wpita</t>
   </si>
 </sst>
 </file>
@@ -75,8 +94,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -373,41 +395,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testSet/caselist/test.xlsx
+++ b/testSet/caselist/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
   <si>
     <t>test_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,618 @@
     <t>MO</t>
   </si>
   <si>
-    <t>TAIWAN ISSUEATCNE</t>
-  </si>
-  <si>
-    <t>wpita</t>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATCNAA</t>
+  </si>
+  <si>
+    <t>gfwqt</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATAUAA</t>
+  </si>
+  <si>
+    <t>dlsaj</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATJMAA</t>
+  </si>
+  <si>
+    <t>tfdng</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATBJAA</t>
+  </si>
+  <si>
+    <t>epwqc</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATMOAA</t>
+  </si>
+  <si>
+    <t>ewrvu</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATCNBA</t>
+  </si>
+  <si>
+    <t>qxyto</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATAUBA</t>
+  </si>
+  <si>
+    <t>slveq</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATJMBA</t>
+  </si>
+  <si>
+    <t>iredt</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATBJBA</t>
+  </si>
+  <si>
+    <t>ijtwv</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATMOBA</t>
+  </si>
+  <si>
+    <t>astbf</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATCNCA</t>
+  </si>
+  <si>
+    <t>hxend</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATAUCA</t>
+  </si>
+  <si>
+    <t>qegmb</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATJMCA</t>
+  </si>
+  <si>
+    <t>gewiy</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATBJCA</t>
+  </si>
+  <si>
+    <t>bvngj</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATMOCA</t>
+  </si>
+  <si>
+    <t>htbga</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATCNDA</t>
+  </si>
+  <si>
+    <t>nfkvg</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATAUDA</t>
+  </si>
+  <si>
+    <t>znfbp</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATJMDA</t>
+  </si>
+  <si>
+    <t>gntrd</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATBJDA</t>
+  </si>
+  <si>
+    <t>nuhqe</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATMODA</t>
+  </si>
+  <si>
+    <t>tpuyr</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATCNEA</t>
+  </si>
+  <si>
+    <t>kdpea</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATAUEA</t>
+  </si>
+  <si>
+    <t>ruxvh</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATJMEA</t>
+  </si>
+  <si>
+    <t>fwmrt</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATBJEA</t>
+  </si>
+  <si>
+    <t>yrmvc</t>
+  </si>
+  <si>
+    <t>HONGKONG ISSUEATMOEA</t>
+  </si>
+  <si>
+    <t>bhlri</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATCNAA</t>
+  </si>
+  <si>
+    <t>rjzyo</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATAUAA</t>
+  </si>
+  <si>
+    <t>padur</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATJMAA</t>
+  </si>
+  <si>
+    <t>jcdnz</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATBJAA</t>
+  </si>
+  <si>
+    <t>crpzw</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATMOAA</t>
+  </si>
+  <si>
+    <t>vkxrc</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATCNBA</t>
+  </si>
+  <si>
+    <t>mzsne</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATAUBA</t>
+  </si>
+  <si>
+    <t>lbmez</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATJMBA</t>
+  </si>
+  <si>
+    <t>orsdz</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATBJBA</t>
+  </si>
+  <si>
+    <t>cyndh</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATMOBA</t>
+  </si>
+  <si>
+    <t>tpegz</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATCNCA</t>
+  </si>
+  <si>
+    <t>gjyen</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATAUCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsibo</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATJMCA</t>
+  </si>
+  <si>
+    <t>uqhpw</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATBJCA</t>
+  </si>
+  <si>
+    <t>dgiqn</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATMOCA</t>
+  </si>
+  <si>
+    <t>ofytu</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATCNDA</t>
+  </si>
+  <si>
+    <t>rkoqf</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATAUDA</t>
+  </si>
+  <si>
+    <t>qhbfw</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATJMDA</t>
+  </si>
+  <si>
+    <t>irbmz</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATBJDA</t>
+  </si>
+  <si>
+    <t>luoan</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATMODA</t>
+  </si>
+  <si>
+    <t>mejcg</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATCNEA</t>
+  </si>
+  <si>
+    <t>eujko</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATAUEA</t>
+  </si>
+  <si>
+    <t>cvtfg</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATJMEA</t>
+  </si>
+  <si>
+    <t>svxlz</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATBJEA</t>
+  </si>
+  <si>
+    <t>yjhwf</t>
+  </si>
+  <si>
+    <t>TAIWAN ISSUEATMOEA</t>
+  </si>
+  <si>
+    <t>wbckh</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATCNAA</t>
+  </si>
+  <si>
+    <t>kjrif</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATAUAA</t>
+  </si>
+  <si>
+    <t>orblq</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATJMAA</t>
+  </si>
+  <si>
+    <t>riyaq</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATBJAA</t>
+  </si>
+  <si>
+    <t>syljb</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATMOAA</t>
+  </si>
+  <si>
+    <t>bkerz</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATCNBA</t>
+  </si>
+  <si>
+    <t>vorhy</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATAUBA</t>
+  </si>
+  <si>
+    <t>widnp</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATJMBA</t>
+  </si>
+  <si>
+    <t>xbfly</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATBJBA</t>
+  </si>
+  <si>
+    <t>hatkg</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATMOBA</t>
+  </si>
+  <si>
+    <t>mwifr</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATCNCA</t>
+  </si>
+  <si>
+    <t>sjxeh</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATAUCA</t>
+  </si>
+  <si>
+    <t>cjokn</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATJMCA</t>
+  </si>
+  <si>
+    <t>bhfdn</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATBJCA</t>
+  </si>
+  <si>
+    <t>hxfsp</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATMOCA</t>
+  </si>
+  <si>
+    <t>jthla</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATCNDA</t>
+  </si>
+  <si>
+    <t>sezdb</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATAUDA</t>
+  </si>
+  <si>
+    <t>qzmip</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATJMDA</t>
+  </si>
+  <si>
+    <t>ozurd</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATBJDA</t>
+  </si>
+  <si>
+    <t>zneto</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATMODA</t>
+  </si>
+  <si>
+    <t>eglwf</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATCNEA</t>
+  </si>
+  <si>
+    <t>upzye</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATAUEA</t>
+  </si>
+  <si>
+    <t>htjyq</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATJMEA</t>
+  </si>
+  <si>
+    <t>mafhz</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATBJEA</t>
+  </si>
+  <si>
+    <t>acftl</t>
+  </si>
+  <si>
+    <t>MTPS ISSUEATMOEA</t>
+  </si>
+  <si>
+    <t>uvpdx</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATCNAA</t>
+  </si>
+  <si>
+    <t>krfwa</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATAUAA</t>
+  </si>
+  <si>
+    <t>mxbrw</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATJMAA</t>
+  </si>
+  <si>
+    <t>fugno</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATBJAA</t>
+  </si>
+  <si>
+    <t>zrnbo</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATMOAA</t>
+  </si>
+  <si>
+    <t>ajskv</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATCNBA</t>
+  </si>
+  <si>
+    <t>cpbgr</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATAUBA</t>
+  </si>
+  <si>
+    <t>bfqml</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATJMBA</t>
+  </si>
+  <si>
+    <t>daqhs</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATBJBA</t>
+  </si>
+  <si>
+    <t>ipucn</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATMOBA</t>
+  </si>
+  <si>
+    <t>uvewr</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATCNCA</t>
+  </si>
+  <si>
+    <t>arpte</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATAUCA</t>
+  </si>
+  <si>
+    <t>tnsrh</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATJMCA</t>
+  </si>
+  <si>
+    <t>bvtul</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATBJCA</t>
+  </si>
+  <si>
+    <t>xknep</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATMOCA</t>
+  </si>
+  <si>
+    <t>xutwr</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATCNDA</t>
+  </si>
+  <si>
+    <t>rhfze</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATAUDA</t>
+  </si>
+  <si>
+    <t>favgh</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATJMDA</t>
+  </si>
+  <si>
+    <t>sycvu</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATBJDA</t>
+  </si>
+  <si>
+    <t>elzcp</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATMODA</t>
+  </si>
+  <si>
+    <t>uxcym</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATCNEA</t>
+  </si>
+  <si>
+    <t>jviap</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATAUEA</t>
+  </si>
+  <si>
+    <t>dpkih</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATJMEA</t>
+  </si>
+  <si>
+    <t>nsukt</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATBJEA</t>
+  </si>
+  <si>
+    <t>miwyq</t>
+  </si>
+  <si>
+    <t>HOME ISSUEATMOEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rwcdk</t>
   </si>
 </sst>
 </file>
@@ -395,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -430,83 +1038,2033 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1"/>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>256</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>257</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>260</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>262</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>264</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>266</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>267</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>268</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>269</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>271</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>273</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>274</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>276</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>277</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>279</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>280</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>281</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>282</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>283</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>285</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>286</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>289</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>292</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>295</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>297</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>298</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>299</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>300</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="C111" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
